--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-18T22:46:44+00:00</t>
+    <t>2023-10-02T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T15:19:31+00:00</t>
+    <t>2023-10-04T16:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
